--- a/Data/三家公司/三家公司財報年度統整.xlsx
+++ b/Data/三家公司/三家公司財報年度統整.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PopMart-Data\excel\Power Bi Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\Project\Designer-Toy-Market-Data-Analysis\Data\三家公司\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9821406-B01B-4B2E-867E-8CE985FDF2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761175B-2C0C-4B1E-B21C-E10C9989C369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disney" sheetId="2" r:id="rId1"/>
     <sheet name="Nintendo" sheetId="1" r:id="rId2"/>
-    <sheet name="Popmart" sheetId="3" r:id="rId3"/>
-    <sheet name="Popmart - IP" sheetId="4" r:id="rId4"/>
+    <sheet name="Popmart修改過後" sheetId="3" r:id="rId3"/>
+    <sheet name="Popmart原始" sheetId="5" r:id="rId4"/>
+    <sheet name="Popmart - IP" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -395,9 +396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +436,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2159,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5"/>
@@ -2255,6 +2256,292 @@
         <v>2020</v>
       </c>
       <c r="C3" s="20">
+        <v>113.4</v>
+      </c>
+      <c r="D3" s="20">
+        <v>32.4</v>
+      </c>
+      <c r="E3" s="20">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="F3" s="20">
+        <v>32.4</v>
+      </c>
+      <c r="G3" s="20">
+        <v>22.7</v>
+      </c>
+      <c r="H3" s="21">
+        <v>71.7</v>
+      </c>
+      <c r="I3" s="6">
+        <v>159.6</v>
+      </c>
+      <c r="J3" s="22">
+        <v>2202.48</v>
+      </c>
+      <c r="K3" s="23">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="20">
+        <v>200.9</v>
+      </c>
+      <c r="D4" s="20">
+        <v>51.8</v>
+      </c>
+      <c r="E4" s="20">
+        <v>124.16</v>
+      </c>
+      <c r="F4" s="20">
+        <v>51.8</v>
+      </c>
+      <c r="G4" s="20">
+        <v>38.9</v>
+      </c>
+      <c r="H4" s="21">
+        <v>124.1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>219.45</v>
+      </c>
+      <c r="J4" s="22">
+        <v>2996.54</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.19</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="20">
+        <v>207.4</v>
+      </c>
+      <c r="D5" s="20">
+        <v>25.9</v>
+      </c>
+      <c r="E5" s="20">
+        <v>88.42</v>
+      </c>
+      <c r="F5" s="20">
+        <v>51.8</v>
+      </c>
+      <c r="G5" s="20">
+        <v>22.7</v>
+      </c>
+      <c r="H5" s="21">
+        <v>119.5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>99.75</v>
+      </c>
+      <c r="J5" s="22">
+        <v>1344.45</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="20">
+        <v>285.10000000000002</v>
+      </c>
+      <c r="D6" s="20">
+        <v>55.1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>109.68</v>
+      </c>
+      <c r="F6" s="20">
+        <v>55.1</v>
+      </c>
+      <c r="G6" s="20">
+        <v>48.6</v>
+      </c>
+      <c r="H6" s="21">
+        <v>173.9</v>
+      </c>
+      <c r="I6" s="6">
+        <v>79.8</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1071.04</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="20">
+        <v>590.9</v>
+      </c>
+      <c r="D7" s="20">
+        <v>187.9</v>
+      </c>
+      <c r="E7" s="20">
+        <v>195.05</v>
+      </c>
+      <c r="F7" s="20">
+        <v>187.9</v>
+      </c>
+      <c r="G7" s="20">
+        <v>149</v>
+      </c>
+      <c r="H7" s="21">
+        <v>391.8</v>
+      </c>
+      <c r="I7" s="6">
+        <v>139.65</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1870.3</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0.254</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.66800000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD49DC7-D26D-4558-9485-5F5AA05CE52C}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="20">
         <v>11.34</v>
       </c>
       <c r="D3" s="20">
@@ -2678,11 +2965,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3B3982-64AD-401F-B867-3DF3AF04F09F}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/Data/三家公司/三家公司財報年度統整.xlsx
+++ b/Data/三家公司/三家公司財報年度統整.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM_pc\Desktop\Project\Designer-Toy-Market-Data-Analysis\Data\三家公司\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4761175B-2C0C-4B1E-B21C-E10C9989C369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EA134-365F-48D0-9988-64C65135F2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disney" sheetId="2" r:id="rId1"/>
@@ -307,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,9 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -786,34 +783,34 @@
       <c r="B3" s="6">
         <v>2020</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>21251.1</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>6990.1</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>14261</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>2635.1</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>-930.8</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>6990.1</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>3881.8</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>106606.5</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>-4.3799999999999999E-2</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>0.32900000000000001</v>
       </c>
     </row>
@@ -824,34 +821,34 @@
       <c r="B4" s="6">
         <v>2021</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>21910.85</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>7243.26</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>14667.58</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>2523.9499999999998</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>648.38</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>7243.26</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>5500.63</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>91497.25</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <v>0.33090000000000003</v>
       </c>
     </row>
@@ -862,34 +859,34 @@
       <c r="B5" s="6">
         <v>2022</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>26884.65</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>9204.32</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>17680.330000000002</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>3940.98</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>1022.13</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>9204.32</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>4029.35</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>51490</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>0.34239999999999998</v>
       </c>
     </row>
@@ -900,34 +897,34 @@
       <c r="B6" s="6">
         <v>2023</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>28892.85</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>9652.52</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>19240.330000000002</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>4180.4799999999996</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>765.05</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>9652.52</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>3166.15</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>53706.25</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>0.33410000000000001</v>
       </c>
     </row>
@@ -938,34 +935,34 @@
       <c r="B7" s="6">
         <v>2024</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>29692.33</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>10615.48</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>19076.849999999999</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>5070.33</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>1616.9</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>10615.48</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>3220.75</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>56777.5</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>5.45E-2</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>0.35749999999999998</v>
       </c>
     </row>
@@ -998,138 +995,138 @@
       <c r="A20" s="10"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="H22" s="16"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="H23" s="16"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="12"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="13"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="13"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="13"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="14"/>
-      <c r="H32" s="16"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="13"/>
-      <c r="H33" s="16"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="13"/>
-      <c r="H34" s="16"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="13"/>
-      <c r="H35" s="16"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="14"/>
-      <c r="H36" s="16"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="13"/>
-      <c r="H37" s="16"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="13"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="14"/>
-      <c r="H40" s="16"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="13"/>
-      <c r="H41" s="16"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="13"/>
-      <c r="H42" s="16"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="13"/>
-      <c r="H43" s="16"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="14"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="13"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="13"/>
-      <c r="H46" s="16"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="13"/>
-      <c r="H47" s="16"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="14"/>
-      <c r="H48" s="16"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11"/>
-      <c r="H49" s="16"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="12"/>
-      <c r="H50" s="16"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="11"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="11"/>
-      <c r="H52" s="16"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="13"/>
-      <c r="H53" s="16"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="13"/>
-      <c r="H54" s="16"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="13"/>
-      <c r="H55" s="16"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="13"/>
@@ -1274,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1358,10 +1355,10 @@
       <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1372,34 +1369,34 @@
       <c r="B3" s="6">
         <v>2020</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>3567.8</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>960.2</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>1817.3</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>983.8</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>704.1</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>1888.8</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>11621.5</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>1531.2</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>0.19769999999999999</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>0.4904</v>
       </c>
     </row>
@@ -1410,34 +1407,34 @@
       <c r="B4" s="6">
         <v>2021</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>4466.8</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>1625.5</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>2002.5</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>1722.9</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>1220.5</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>2711.6</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>16197.5</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>2112.9499999999998</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>0.27310000000000001</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <v>0.55169999999999997</v>
       </c>
     </row>
@@ -1448,34 +1445,34 @@
       <c r="B5" s="6">
         <v>2022</v>
       </c>
-      <c r="C5" s="20">
-        <v>443.6</v>
-      </c>
-      <c r="D5" s="21">
-        <v>175.7</v>
-      </c>
-      <c r="E5" s="21">
-        <v>22315.599999999999</v>
-      </c>
-      <c r="F5" s="21">
-        <v>199.7</v>
-      </c>
-      <c r="G5" s="21">
-        <v>142.9</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="C5" s="19">
+        <v>3383</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1757</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2231.56</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1997</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1429</v>
+      </c>
+      <c r="H5" s="20">
         <v>2816.1</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>16400.5</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>2129.9499999999998</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>0.28179999999999999</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>0.55800000000000005</v>
       </c>
     </row>
@@ -1486,34 +1483,34 @@
       <c r="B6" s="6">
         <v>2023</v>
       </c>
-      <c r="C6" s="20">
-        <v>3752.6</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="19">
+        <v>3752</v>
+      </c>
+      <c r="D6" s="20">
         <v>1182.0999999999999</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>1680.1</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>1408.8</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>1013</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>2759.1</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>1561</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>2043.85</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>0.2702</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>0.55279999999999996</v>
       </c>
     </row>
@@ -1524,633 +1521,36 @@
       <c r="B7" s="6">
         <v>2024</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>3555.7</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>1123.9000000000001</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>1525</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>1448.2</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>1044.0999999999999</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>3064.6</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>2567.5</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>3356</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>0.29349999999999998</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>0.57079999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="11"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="11"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="11"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="13"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="13"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="11"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="12"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="11"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="11"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="13"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="13"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="11"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="12"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="11"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="11"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="13"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="14"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="13"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="14"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="13"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="14"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2162,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2255,34 +1655,34 @@
       <c r="B3" s="6">
         <v>2020</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>113.4</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>32.4</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>71.739999999999995</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>32.4</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>22.7</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>71.7</v>
       </c>
       <c r="I3" s="6">
         <v>159.6</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>2202.48</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>0.20799999999999999</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>0.63400000000000001</v>
       </c>
     </row>
@@ -2293,34 +1693,34 @@
       <c r="B4" s="6">
         <v>2021</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>200.9</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>51.8</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>124.16</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>51.8</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>38.9</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>124.1</v>
       </c>
       <c r="I4" s="6">
         <v>219.45</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>2996.54</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>0.19</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <v>0.61399999999999999</v>
       </c>
     </row>
@@ -2331,34 +1731,34 @@
       <c r="B5" s="6">
         <v>2022</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>207.4</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>25.9</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>88.42</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>51.8</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>22.7</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>119.5</v>
       </c>
       <c r="I5" s="6">
         <v>99.75</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>1344.45</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>0.10299999999999999</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>0.57499999999999996</v>
       </c>
     </row>
@@ -2369,34 +1769,34 @@
       <c r="B6" s="6">
         <v>2023</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>285.10000000000002</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>55.1</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>109.68</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>55.1</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>48.6</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>173.9</v>
       </c>
       <c r="I6" s="6">
         <v>79.8</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>1071.04</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>0.17299999999999999</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>0.61299999999999999</v>
       </c>
     </row>
@@ -2407,34 +1807,34 @@
       <c r="B7" s="6">
         <v>2024</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>590.9</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>187.9</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>195.05</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>187.9</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>149</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>391.8</v>
       </c>
       <c r="I7" s="6">
         <v>139.65</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>1870.3</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>0.254</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>0.66800000000000004</v>
       </c>
     </row>
@@ -2541,34 +1941,34 @@
       <c r="B3" s="6">
         <v>2020</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>11.34</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>3.24</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>71.739999999999995</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <v>3.24</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>2.27</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>7.17</v>
       </c>
       <c r="I3" s="6">
         <v>159.6</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>2202.48</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>0.20799999999999999</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>0.63400000000000001</v>
       </c>
     </row>
@@ -2579,34 +1979,34 @@
       <c r="B4" s="6">
         <v>2021</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>20.09</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>5.18</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>124.16</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <v>5.18</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>3.89</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>12.41</v>
       </c>
       <c r="I4" s="6">
         <v>219.45</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>2996.54</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>0.19</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <v>0.61399999999999999</v>
       </c>
     </row>
@@ -2617,34 +2017,34 @@
       <c r="B5" s="6">
         <v>2022</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>20.74</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>2.59</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>88.42</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>5.18</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>2.27</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>11.95</v>
       </c>
       <c r="I5" s="6">
         <v>99.75</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>1344.45</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>0.10299999999999999</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>0.57499999999999996</v>
       </c>
     </row>
@@ -2655,34 +2055,34 @@
       <c r="B6" s="6">
         <v>2023</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>28.51</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>5.51</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>109.68</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>5.51</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>4.8600000000000003</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>17.39</v>
       </c>
       <c r="I6" s="6">
         <v>79.8</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>1071.04</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>0.17299999999999999</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>0.61299999999999999</v>
       </c>
     </row>
@@ -2693,34 +2093,34 @@
       <c r="B7" s="6">
         <v>2024</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>59.09</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>18.79</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>195.05</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>18.79</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>14.9</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>39.18</v>
       </c>
       <c r="I7" s="6">
         <v>139.65</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>1870.3</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>0.254</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>0.66800000000000004</v>
       </c>
     </row>
@@ -2831,133 +2231,133 @@
       <c r="J16" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="25.5">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="H22" s="16"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="H23" s="16"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="H24" s="16"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="H25" s="16"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="H26" s="16"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" ht="18.75">
-      <c r="A27" s="19"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="18"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="12"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="12"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11"/>
-      <c r="H32" s="16"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="12"/>
-      <c r="H33" s="16"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="H34" s="16"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" ht="18.75">
-      <c r="A35" s="19"/>
-      <c r="H35" s="16"/>
+      <c r="A35" s="18"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="11"/>
-      <c r="H36" s="16"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="12"/>
-      <c r="H37" s="16"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="11"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="12"/>
-      <c r="H39" s="16"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11"/>
-      <c r="H40" s="16"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="12"/>
-      <c r="H41" s="16"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="H42" s="16"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" ht="18.75">
-      <c r="A43" s="19"/>
-      <c r="H43" s="16"/>
+      <c r="A43" s="18"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="12"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="11"/>
-      <c r="H46" s="16"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="12"/>
-      <c r="H47" s="16"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11"/>
-      <c r="H48" s="16"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="12"/>
-      <c r="H49" s="16"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="11"/>
-      <c r="H50" s="16"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="12"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="H52" s="16"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="10"/>
-      <c r="H53" s="16"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="H54" s="16"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="H55" s="16"/>
+      <c r="H55" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2994,10 +2394,10 @@
       <c r="A2">
         <v>2024</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>136.83000000000001</v>
       </c>
     </row>
@@ -3038,7 +2438,7 @@
       <c r="A6">
         <v>2024</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C6">
@@ -3093,7 +2493,7 @@
       <c r="A11">
         <v>2023</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C11">
@@ -3115,7 +2515,7 @@
       <c r="A13">
         <v>2023</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C13">
@@ -3137,7 +2537,7 @@
       <c r="A15">
         <v>2023</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C15">
@@ -3181,7 +2581,7 @@
       <c r="A19">
         <v>2022</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C19">
@@ -3192,7 +2592,7 @@
       <c r="A20">
         <v>2022</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C20">
@@ -3247,7 +2647,7 @@
       <c r="A25">
         <v>2021</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C25">
@@ -3258,7 +2658,7 @@
       <c r="A26">
         <v>2021</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C26">
